--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC678A49-5305-4618-BBA1-E52888244305}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,10 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>Report Channel</t>
   </si>
@@ -58,12 +59,57 @@
   </si>
   <si>
     <t>OCM Agent Historical Report</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Palak garg</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t>Kash</t>
+  </si>
+  <si>
+    <t>Murali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -425,7 +471,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -479,8 +728,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -491,8 +740,8 @@
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,8 +777,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -583,9 +832,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -593,13 +842,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,10 +859,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -621,65 +885,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA07302-17DA-4572-A11E-ADEC75E6148E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
-    <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
-    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId3"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId4"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId5"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
   <si>
     <t>Report Channel</t>
   </si>
@@ -105,11 +106,26 @@
   <si>
     <t xml:space="preserve">Palak </t>
   </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t>QueryDrillGridTwo</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-05-2020 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,22 +438,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -471,25 +488,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -593,7 +610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,22 +642,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F093AD83-E38D-48DA-BA71-06BDB2F31AEB}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,23 +758,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -728,23 +813,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -777,23 +862,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -832,23 +917,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA07302-17DA-4572-A11E-ADEC75E6148E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF043346-03E6-4912-BFE9-747C9ED13F9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>Report Channel</t>
   </si>
@@ -120,6 +120,44 @@
   </si>
   <si>
     <t>11-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
+[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],
+[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
+[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total AUX Time],SUM(ExtensionCalls) AS [Extension Interaction],[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) as [Total Extension Time],
+[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time] 
+FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
+INNER JOIN fn_AgentHierarchy('na','1','1') A ON  A.[AgentId]=M.[AgentID]
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate'
+GROUP BY M.[AgentID], A.[AgentName],A.[TeamName],A.[SupervisorName]
+Order by [Agent Name];</t>
+  </si>
+  <si>
+    <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') AS TeamName,
+ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS SupervisorName,SUM(ACDCalls) AS TotalInteraction,
+[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) [Total Interaction Time],
+[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],
+SUM([TotalChat]) as [Total Chat],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as [Total Chat Time],
+[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],
+SUM([TotalAudioIP]) [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
+[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total Aux Time],
+SUM(ExtensionCalls) AS [Extension Interaction],
+[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) [Total Extension Time],
+[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],
+[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time]  
+FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
+LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
+LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
+LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] LIKE 'AgentIdCapturedFromUI'  
+GROUP BY  [Dateint], [AgentID],B.[FirstName],B.[LastName],C.TeamName,A.FirstName,A.LastName ORDER BY [Dateint] ASC;</t>
   </si>
 </sst>
 </file>
@@ -155,10 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F093AD83-E38D-48DA-BA71-06BDB2F31AEB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,8 +700,8 @@
     <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.54296875" customWidth="1"/>
     <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -702,6 +746,12 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF043346-03E6-4912-BFE9-747C9ED13F9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,8 @@
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>Report Channel</t>
   </si>
@@ -83,28 +83,13 @@
     <t>Is equal to</t>
   </si>
   <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
     <t>Is  not equal to</t>
   </si>
   <si>
     <t>Contains</t>
   </si>
   <si>
-    <t>garg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starts with </t>
-  </si>
-  <si>
-    <t>Kash</t>
-  </si>
-  <si>
-    <t>Murali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palak </t>
   </si>
   <si>
     <t>Query</t>
@@ -159,11 +144,26 @@
 WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] LIKE 'AgentIdCapturedFromUI'  
 GROUP BY  [Dateint], [AgentID],B.[FirstName],B.[LastName],C.TeamName,A.FirstName,A.LastName ORDER BY [Dateint] ASC;</t>
   </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>7689</t>
+  </si>
+  <si>
+    <t>Villers</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Abrahma Villers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,16 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -298,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -475,26 +475,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -532,22 +532,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -586,11 +586,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -598,8 +598,8 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -612,20 +612,20 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -638,20 +638,20 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -664,20 +664,20 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -686,73 +686,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F093AD83-E38D-48DA-BA71-06BDB2F31AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="82.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="104.5703125" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,19 +761,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -796,11 +797,11 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -809,19 +810,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -851,11 +852,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -864,19 +865,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -913,19 +914,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -955,11 +956,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -968,19 +969,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1022,11 +1023,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1038,9 +1039,68 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
+    <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:O20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>Report Channel</t>
   </si>
@@ -158,6 +159,18 @@
   </si>
   <si>
     <t>Abrahma Villers</t>
+  </si>
+  <si>
+    <t>Filter Date</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
   </si>
 </sst>
 </file>
@@ -193,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
@@ -203,6 +216,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +550,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +564,7 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1104,4 +1118,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="C1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
   <si>
     <t>Report Channel</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Abrahma</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Abraham Villers</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
   </si>
 </sst>
 </file>
@@ -550,7 +577,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -984,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,9 +1023,11 @@
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1055,14 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1090,14 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,13 +1120,13 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,13 +1149,105 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="4875" yWindow="3990" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:M20"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>Report Channel</t>
   </si>
@@ -185,9 +185,6 @@
     <t>In</t>
   </si>
   <si>
-    <t>Abraham Villers</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -198,6 +195,12 @@
   </si>
   <si>
     <t>Ends with</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>09-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -640,10 +643,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -654,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -669,7 +672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -695,7 +698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -719,6 +722,32 @@
       </c>
       <c r="H5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,11 +868,23 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,7 +896,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -959,7 +1000,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1039,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1013,13 +1054,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
@@ -1073,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1108,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1120,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -1137,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1166,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1178,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -1201,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1213,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -1230,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1242,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
@@ -1257,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -1328,8 +1371,8 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
+      <c r="H2" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>34</v>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="3990" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:E20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
   <si>
     <t>Report Channel</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>QueryDrillGridTwo</t>
-  </si>
-  <si>
-    <t>27-04-2020 00:00:00</t>
   </si>
   <si>
     <t>11-05-2020 00:00:00</t>
@@ -201,6 +198,12 @@
   </si>
   <si>
     <t>09-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,10 +634,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -643,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -669,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,10 +686,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -695,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,10 +712,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -721,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -735,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,16 +815,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -868,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1039,10 +1042,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1099,10 +1102,10 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1116,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1131,13 +1134,13 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,10 +1154,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1163,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1180,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1195,7 +1198,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1209,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1221,16 +1224,16 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1244,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1256,10 +1259,10 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1285,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +1346,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
@@ -1360,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1372,13 +1375,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E20"/>
+  <oleSize ref="C1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -522,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C1:K20"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>Report Channel</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Single Date</t>
-  </si>
-  <si>
-    <t>random.str</t>
   </si>
   <si>
     <t>Date Range</t>
@@ -197,13 +194,28 @@
     <t>Agent ID</t>
   </si>
   <si>
-    <t>09-05-2020 00:00:00</t>
-  </si>
-  <si>
     <t>20-05-2020 00:00:00</t>
   </si>
   <si>
     <t>27-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:05</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,16 +572,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +595,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,149 +620,149 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -789,42 +801,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -865,16 +877,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,27 +933,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +966,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +974,7 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -981,16 +993,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1015,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,27 +1037,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1057,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,214 +1096,214 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1303,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,57 +1343,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
-    <sheet name="Queries" sheetId="8" r:id="rId3"/>
-    <sheet name="ShowInNewPage" sheetId="2" r:id="rId4"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId5"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
-    <sheet name="AdvanceSearch" sheetId="7" r:id="rId8"/>
-    <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="DrillDown" sheetId="9" r:id="rId8"/>
+    <sheet name="Queries" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
   <si>
     <t>Report Channel</t>
   </si>
@@ -100,6 +99,114 @@
   </si>
   <si>
     <t>11-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>7689</t>
+  </si>
+  <si>
+    <t>Villers</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Abrahma Villers</t>
+  </si>
+  <si>
+    <t>Filter Date</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Abrahma</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:05</t>
+  </si>
+  <si>
+    <t>21-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],</t>
+  </si>
+  <si>
+    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],</t>
+  </si>
+  <si>
+    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],</t>
+  </si>
+  <si>
+    <t>[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total AUX Time],SUM(ExtensionCalls) AS [Extension Interaction],[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) as [Total Extension Time],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time] </t>
+  </si>
+  <si>
+    <t>FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)</t>
+  </si>
+  <si>
+    <t>INNER JOIN fn_AgentHierarchy('na','1','1') A ON  A.[AgentId]=M.[AgentID]</t>
+  </si>
+  <si>
+    <t>WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate'</t>
+  </si>
+  <si>
+    <t>GROUP BY M.[AgentID], A.[AgentName],A.[TeamName],A.[SupervisorName]</t>
+  </si>
+  <si>
+    <t>Order by [Agent Name];</t>
   </si>
   <si>
     <t>SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
@@ -115,8 +222,8 @@
 Order by [Agent Name];</t>
   </si>
   <si>
-    <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') AS TeamName,
-ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS SupervisorName,SUM(ACDCalls) AS TotalInteraction,
+    <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') 
+AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],SUM(ACDCalls) AS [Total Interaction],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) [Total Interaction Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],
 SUM([TotalChat]) as [Total Chat],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as [Total Chat Time],
@@ -126,7 +233,7 @@
 [dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],
 [dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],
 [dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],
-[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total Aux Time],
+[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total AUX Time],
 SUM(ExtensionCalls) AS [Extension Interaction],
 [dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) [Total Extension Time],
 [dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],
@@ -134,88 +241,33 @@
 [dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time]  
 FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
 LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
+LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C 
+WITH(NOLOCK) ON C.TeamID = A.TeamID
+LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' 
+AND [AgentID] LIKE 'AgentIdCapturedFromUI' GROUP BY  [Dateint], [AgentID],B.[FirstName],B.[LastName],C.TeamName,A.FirstName,A.LastName
+ORDER BY [Dateint] ASC;</t>
+  </si>
+  <si>
+    <t>SELECT Interval,AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+ISNULL(C.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],
+ACDCalls AS [Total Interaction],[TotalChat] as [Total Chat],[TotalAudioIP] as [Total Audio IP],ExtensionCalls AS [Extension Interaction],
+[dbo].[SECONDSTOhhmmss](TotalAfterCallTime) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](TotalAvailTime) [Total Avail Time],
+[dbo].[SECONDSTOhhmmss](TotalAuxTime) [Total AUX Time], [dbo].[SECONDSTOhhmmss](TotalStaffedTime) as [Total Time Staffed],
+[dbo].[SECONDSTOhhmmss](TotalHoldTime) as [Total Hold Time],[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]) [Total Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]) as [Total Chat Time],[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]) [Total AudioIP Time],
+[dbo].[SECONDSTOhhmmss]([TotalExtensionTime]) [Total Extension Time],
+[dbo].[SECONDSTOhhmmss](TotalExtensionTime/nullif(ExtensionCalls,0))AS [Avg Extension Time], 
+[dbo].[SECONDSTOhhmmss](TotalInteractionTime/nullif(ACDCalls,0))AS [Avg Talk Time],
+[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]/nullif(ACDCalls,0))AS [Avg Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]/nullif([TotalChat],0))AS [Avg Chat Time],
+[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]/nullif([TotalAudioIP],0))AS [Avg AudioIP Time] 
+FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
+LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
 LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
 LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
-WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] LIKE 'AgentIdCapturedFromUI'  
-GROUP BY  [Dateint], [AgentID],B.[FirstName],B.[LastName],C.TeamName,A.FirstName,A.LastName ORDER BY [Dateint] ASC;</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t>7689</t>
-  </si>
-  <si>
-    <t>Villers</t>
-  </si>
-  <si>
-    <t>Am</t>
-  </si>
-  <si>
-    <t>Abrahma Villers</t>
-  </si>
-  <si>
-    <t>Filter Date</t>
-  </si>
-  <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>01:30-02:00</t>
-  </si>
-  <si>
-    <t>Search String1</t>
-  </si>
-  <si>
-    <t>Search String2</t>
-  </si>
-  <si>
-    <t>Abrahma</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Is not equal to</t>
-  </si>
-  <si>
-    <t>Does not contain</t>
-  </si>
-  <si>
-    <t>Starts with</t>
-  </si>
-  <si>
-    <t>Ends with</t>
-  </si>
-  <si>
-    <t>Agent ID</t>
-  </si>
-  <si>
-    <t>20-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>27-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:01</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:02</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:03</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:04</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:05</t>
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI'
+and [Interval] like '%' ORDER BY [intvl] ASC;</t>
   </si>
 </sst>
 </file>
@@ -251,17 +303,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +668,7 @@
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -657,8 +716,8 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -683,8 +742,8 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -698,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -710,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -736,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -750,19 +809,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>26</v>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -771,81 +830,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="104.5703125" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -883,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -906,7 +890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -950,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -961,12 +945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1054,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1065,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1085,7 +1069,7 @@
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1146,16 +1130,16 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1178,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1210,10 +1194,10 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1236,19 +1220,19 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1271,13 +1255,13 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1300,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1311,11 +1295,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1332,7 +1316,7 @@
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,13 +1342,13 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1387,13 +1371,140 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>34</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0FAB5-A907-4A0B-8725-40DE78C0656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="53">
   <si>
     <t>Report Channel</t>
   </si>
@@ -173,43 +174,7 @@
     <t>10-05-2020 00:00:05</t>
   </si>
   <si>
-    <t>21-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>22-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],</t>
-  </si>
-  <si>
-    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],</t>
-  </si>
-  <si>
-    <t>[dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],</t>
-  </si>
-  <si>
-    <t>[dbo].[SECONDSTOhhmmss](SUM(TotalInteractionTime)/nullif(SUM(ACDCalls),0))AS [Avg Talk Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAfterCallTime)) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAvailTime)) as [Total Avail Time],[dbo].[SECONDSTOhhmmss](SUM(TotalAuxTime)) as [Total AUX Time],SUM(ExtensionCalls) AS [Extension Interaction],[dbo].[SECONDSTOhhmmss](sum([TotalExtensionTime])) as [Total Extension Time],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[dbo].[SECONDSTOhhmmss](sum(TotalExtensionTime)/nullif(sum(ExtensionCalls),0))AS [Avg Extension Time],[dbo].[SECONDSTOhhmmss](SUM(TotalStaffedTime)) as [Total Time Staffed],[dbo].[SECONDSTOhhmmss](SUM(TotalHoldTime)) as [Total Hold Time] </t>
-  </si>
-  <si>
-    <t>FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)</t>
-  </si>
-  <si>
-    <t>INNER JOIN fn_AgentHierarchy('na','1','1') A ON  A.[AgentId]=M.[AgentID]</t>
-  </si>
-  <si>
-    <t>WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate'</t>
-  </si>
-  <si>
-    <t>GROUP BY M.[AgentID], A.[AgentName],A.[TeamName],A.[SupervisorName]</t>
-  </si>
-  <si>
-    <t>Order by [Agent Name];</t>
-  </si>
-  <si>
-    <t>SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
+    <t xml:space="preserve">SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],
 [dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
@@ -219,7 +184,29 @@
 INNER JOIN fn_AgentHierarchy('na','1','1') A ON  A.[AgentId]=M.[AgentID]
 WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate'
 GROUP BY M.[AgentID], A.[AgentName],A.[TeamName],A.[SupervisorName]
-Order by [Agent Name];</t>
+Order by [Agent Name];
+</t>
+  </si>
+  <si>
+    <t>SELECT Interval,AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+ISNULL(C.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],
+ACDCalls AS [Total Interaction],[TotalChat] as [Total Chat],[TotalAudioIP] as [Total Audio IP],ExtensionCalls AS [Extension Interaction],
+[dbo].[SECONDSTOhhmmss](TotalAfterCallTime) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](TotalAvailTime) [Total Avail Time],
+[dbo].[SECONDSTOhhmmss](TotalAuxTime) [Total AUX Time], [dbo].[SECONDSTOhhmmss](TotalStaffedTime) as [Total Time Staffed],
+[dbo].[SECONDSTOhhmmss](TotalHoldTime) as [Total Hold Time],[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]) [Total Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]) as [Total Chat Time],[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]) [Total AudioIP Time],
+[dbo].[SECONDSTOhhmmss]([TotalExtensionTime]) [Total Extension Time],
+[dbo].[SECONDSTOhhmmss](TotalExtensionTime/nullif(ExtensionCalls,0))AS [Avg Extension Time], 
+[dbo].[SECONDSTOhhmmss](TotalInteractionTime/nullif(ACDCalls,0))AS [Avg Talk Time],
+[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]/nullif(ACDCalls,0))AS [Avg Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]/nullif([TotalChat],0))AS [Avg Chat Time],
+[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]/nullif([TotalAudioIP],0))AS [Avg AudioIP Time] 
+FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
+LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
+LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
+LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI'
+and [Interval] like '%' ORDER BY [intvl] ASC;</t>
   </si>
   <si>
     <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') 
@@ -249,31 +236,16 @@
 ORDER BY [Dateint] ASC;</t>
   </si>
   <si>
-    <t>SELECT Interval,AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
-ISNULL(C.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],
-ACDCalls AS [Total Interaction],[TotalChat] as [Total Chat],[TotalAudioIP] as [Total Audio IP],ExtensionCalls AS [Extension Interaction],
-[dbo].[SECONDSTOhhmmss](TotalAfterCallTime) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](TotalAvailTime) [Total Avail Time],
-[dbo].[SECONDSTOhhmmss](TotalAuxTime) [Total AUX Time], [dbo].[SECONDSTOhhmmss](TotalStaffedTime) as [Total Time Staffed],
-[dbo].[SECONDSTOhhmmss](TotalHoldTime) as [Total Hold Time],[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]) [Total Interaction Time],
-[dbo].[SECONDSTOhhmmss]([TotalChatTime]) as [Total Chat Time],[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]) [Total AudioIP Time],
-[dbo].[SECONDSTOhhmmss]([TotalExtensionTime]) [Total Extension Time],
-[dbo].[SECONDSTOhhmmss](TotalExtensionTime/nullif(ExtensionCalls,0))AS [Avg Extension Time], 
-[dbo].[SECONDSTOhhmmss](TotalInteractionTime/nullif(ACDCalls,0))AS [Avg Talk Time],
-[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]/nullif(ACDCalls,0))AS [Avg Interaction Time],
-[dbo].[SECONDSTOhhmmss]([TotalChatTime]/nullif([TotalChat],0))AS [Avg Chat Time],
-[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]/nullif([TotalAudioIP],0))AS [Avg AudioIP Time] 
-FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
-LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
-LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
-LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
-WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI'
-and [Interval] like '%' ORDER BY [intvl] ASC;</t>
+    <t>21-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,22 +275,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -593,26 +562,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -650,25 +619,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,7 +689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -772,7 +741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,22 +799,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,16 +842,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
@@ -891,19 +860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -946,19 +915,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -995,19 +964,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1050,26 +1019,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1296,24 +1265,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -1386,26 +1355,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" customWidth="1"/>
+    <col min="8" max="8" width="32.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1383,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -1431,80 +1399,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="F4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="F5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="F6" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F8" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0FAB5-A907-4A0B-8725-40DE78C0656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200C5B9-9EE7-4303-BE44-C731C84035BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200C5B9-9EE7-4303-BE44-C731C84035BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1816559-C8EF-445F-9BF6-A9F48DD0B611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="56">
   <si>
     <t>Report Channel</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Villers</t>
-  </si>
-  <si>
-    <t>Am</t>
   </si>
   <si>
     <t>Abrahma Villers</t>
@@ -240,6 +237,18 @@
   </si>
   <si>
     <t>22-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Med</t>
   </si>
 </sst>
 </file>
@@ -570,21 +579,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +607,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -610,6 +623,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -620,24 +636,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +679,11 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -686,10 +706,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -715,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -726,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -741,7 +764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -764,10 +787,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -778,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -800,21 +823,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,32 +850,34 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,15 +892,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -922,15 +947,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,15 +996,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1023,22 +1048,22 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,13 +1092,13 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1099,16 +1124,16 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -1131,13 +1156,13 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1163,10 +1188,10 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1189,19 +1214,19 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1224,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
@@ -1253,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
@@ -1272,20 +1297,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
@@ -1340,13 +1365,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1358,22 +1383,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="44.54296875" customWidth="1"/>
-    <col min="8" max="8" width="32.453125" customWidth="1"/>
+    <col min="7" max="7" width="44.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1410,19 +1435,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentHistoricalReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1816559-C8EF-445F-9BF6-A9F48DD0B611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE841C-E93D-4B63-B4BB-D3D1FF43C0F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,25 @@
     <t>10-05-2020 00:00:05</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Team Name],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
+    <t>21-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.AgentID as [Agent ID],A.AgentName as[Agent Name],A.TeamName as [Org.Unit],A.SupervisorName as[Supervisor Name],sum(ACDCalls) AS [Total Interaction],[dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) as [Total Interaction Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],SUM([TotalChat]) as [Total Chat],
 [dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as[Total Chat Time],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])/nullif(sum([TotalChat]),0))AS [Avg Chat Time],SUM([TotalAudioIP]) as [Total Audio IP],[dbo].[SECONDSTOhhmmss](sum([TotalAudioIPTime])) [Total AudioIP Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalAudioIPTime])/nullif(SUM([TotalAudioIP]),0))AS [Avg AudioIP Time],
@@ -185,29 +203,8 @@
 </t>
   </si>
   <si>
-    <t>SELECT Interval,AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
-ISNULL(C.TeamName,' ') AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],
-ACDCalls AS [Total Interaction],[TotalChat] as [Total Chat],[TotalAudioIP] as [Total Audio IP],ExtensionCalls AS [Extension Interaction],
-[dbo].[SECONDSTOhhmmss](TotalAfterCallTime) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](TotalAvailTime) [Total Avail Time],
-[dbo].[SECONDSTOhhmmss](TotalAuxTime) [Total AUX Time], [dbo].[SECONDSTOhhmmss](TotalStaffedTime) as [Total Time Staffed],
-[dbo].[SECONDSTOhhmmss](TotalHoldTime) as [Total Hold Time],[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]) [Total Interaction Time],
-[dbo].[SECONDSTOhhmmss]([TotalChatTime]) as [Total Chat Time],[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]) [Total AudioIP Time],
-[dbo].[SECONDSTOhhmmss]([TotalExtensionTime]) [Total Extension Time],
-[dbo].[SECONDSTOhhmmss](TotalExtensionTime/nullif(ExtensionCalls,0))AS [Avg Extension Time], 
-[dbo].[SECONDSTOhhmmss](TotalInteractionTime/nullif(ACDCalls,0))AS [Avg Talk Time],
-[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]/nullif(ACDCalls,0))AS [Avg Interaction Time],
-[dbo].[SECONDSTOhhmmss]([TotalChatTime]/nullif([TotalChat],0))AS [Avg Chat Time],
-[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]/nullif([TotalAudioIP],0))AS [Avg AudioIP Time] 
-FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
-LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
-LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
-LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
-WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI'
-and [Interval] like '%' ORDER BY [intvl] ASC;</t>
-  </si>
-  <si>
     <t>SELECT Dateint AS [Date],AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],ISNULL(C.TeamName,' ') 
-AS [Team Name],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],SUM(ACDCalls) AS [Total Interaction],
+AS [Org.Unit],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],SUM(ACDCalls) AS [Total Interaction],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])) [Total Interaction Time],
 [dbo].[SECONDSTOhhmmss](SUM([TotalInteractionTime])/nullif(SUM(ACDCalls),0))AS [Avg Interaction Time],
 SUM([TotalChat]) as [Total Chat],[dbo].[SECONDSTOhhmmss](SUM([TotalChatTime])) as [Total Chat Time],
@@ -233,22 +230,25 @@
 ORDER BY [Dateint] ASC;</t>
   </si>
   <si>
-    <t>21-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>22-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>DeleteReason</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Med</t>
+    <t>SELECT Interval,AgentID as [Agent ID],ISNULL(A.FirstName,'')+' '+ ISNULL(A.LastName,'') AS [Agent Name],
+ISNULL(C.TeamName,' ') AS [Org.Unit],ISNULL(B.FirstName,'NA')+' '+ ISNULL(B.LastName,'') AS [Supervisor Name],
+ACDCalls AS [Total Interaction],[TotalChat] as [Total Chat],[TotalAudioIP] as [Total Audio IP],ExtensionCalls AS [Extension Interaction],
+[dbo].[SECONDSTOhhmmss](TotalAfterCallTime) as [Total After Call Time],[dbo].[SECONDSTOhhmmss](TotalAvailTime) [Total Avail Time],
+[dbo].[SECONDSTOhhmmss](TotalAuxTime) [Total AUX Time], [dbo].[SECONDSTOhhmmss](TotalStaffedTime) as [Total Time Staffed],
+[dbo].[SECONDSTOhhmmss](TotalHoldTime) as [Total Hold Time],[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]) [Total Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]) as [Total Chat Time],[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]) [Total AudioIP Time],
+[dbo].[SECONDSTOhhmmss]([TotalExtensionTime]) [Total Extension Time],
+[dbo].[SECONDSTOhhmmss](TotalExtensionTime/nullif(ExtensionCalls,0))AS [Avg Extension Time], 
+[dbo].[SECONDSTOhhmmss](TotalInteractionTime/nullif(ACDCalls,0))AS [Avg Talk Time],
+[dbo].[SECONDSTOhhmmss]([TotalInteractionTime]/nullif(ACDCalls,0))AS [Avg Interaction Time],
+[dbo].[SECONDSTOhhmmss]([TotalChatTime]/nullif([TotalChat],0))AS [Avg Chat Time],
+[dbo].[SECONDSTOhhmmss]([TotalAudioIPTime]/nullif([TotalAudioIP],0))AS [Avg AudioIP Time] 
+FROM [OCM_AgentHistoricalReport] M WITH(NOLOCK)
+LEFT JOIN [AGT_Agent] A WITH(NOLOCK)  ON A.AvayaLoginID = M.[AgentID] 
+LEFT JOIN [AGT_Agent] B WITH(NOLOCK)  ON A.[PrimarySupervisorID]=B.ID LEFT JOIN [AGT_Teams] C WITH(NOLOCK) ON C.TeamID = A.TeamID
+LEFT JOIN[dbo].[AGT_Teams] P WITH(NOLOCK) ON C.ParentID = P.TeamID 
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND [AgentID] like 'AgentIdCapturedFromUI'
+and [Interval] like '%' ORDER BY [intvl] ASC;</t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,7 +1393,7 @@
     <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
     <col min="7" max="7" width="44.5546875" customWidth="1"/>
     <col min="8" max="8" width="32.44140625" customWidth="1"/>
   </cols>
@@ -1435,19 +1435,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
